--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/28.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/28.xlsx
@@ -479,13 +479,13 @@
         <v>0.2469893808985708</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.809342735890587</v>
+        <v>-1.825796744775104</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04094271251387307</v>
+        <v>0.03880519454714673</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.07521989863811769</v>
+        <v>-0.07069301964525691</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.2822747421381536</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.844514980165611</v>
+        <v>-1.852065549890491</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01632662747585161</v>
+        <v>0.01138578145408875</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.06291736518603151</v>
+        <v>-0.06335494250175311</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.3401099263912621</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.944852403072045</v>
+        <v>-1.951787531320496</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.01472404773004706</v>
+        <v>-0.01101723269938394</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.06174786897890511</v>
+        <v>-0.05575715220323469</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.4057499979386017</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.99588997308022</v>
+        <v>-2.011157171547276</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.03580173778338457</v>
+        <v>-0.03380273349933269</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.05906888843445134</v>
+        <v>-0.05493866226015833</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.4682444167207628</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.962323228308922</v>
+        <v>-1.987608271473496</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.02370225279794618</v>
+        <v>-0.02653076515892352</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.07255193622751303</v>
+        <v>-0.06466137837243267</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.5137324857753536</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.83900670025062</v>
+        <v>-1.869045281161522</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01724428062356991</v>
+        <v>0.01421271979594479</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.06708851585747834</v>
+        <v>-0.06503442090418095</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.5352341987747267</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.574440057275476</v>
+        <v>-1.61114933122245</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05647355918374695</v>
+        <v>0.05646254104989785</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.063809834027809</v>
+        <v>-0.06304013867749297</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.5302491059409165</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.177959593801485</v>
+        <v>-1.224521440438241</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05400549720154747</v>
+        <v>0.05927216518141958</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.04972236289216785</v>
+        <v>-0.05010170150040132</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.5063637447917014</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.673927977788139</v>
+        <v>-0.7224864676802653</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04966592648412148</v>
+        <v>0.05694576492013716</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.01852372988886692</v>
+        <v>-0.01585576747826225</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.4786728823153396</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.165593780506718</v>
+        <v>-0.2128914810826824</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.04390006616247661</v>
+        <v>-0.03482112387081424</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02030102575713585</v>
+        <v>0.02326490376254504</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.4659450048521444</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4169349560954536</v>
+        <v>0.3662090418732963</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2295839538640762</v>
+        <v>-0.22772503728182</v>
       </c>
       <c r="G12" t="n">
-        <v>0.08228275071571434</v>
+        <v>0.08691351497058096</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.4821129991174427</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9920107121582663</v>
+        <v>0.9337137659626528</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.5194852216061155</v>
+        <v>-0.5271695829563054</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1742526879733135</v>
+        <v>0.1800450783397</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.5384941848670253</v>
       </c>
       <c r="E14" t="n">
-        <v>1.576132356111194</v>
+        <v>1.511218233529632</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.8342638615603123</v>
+        <v>-0.8472865087603935</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2844906911527285</v>
+        <v>0.2977943007659619</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.638877283314668</v>
       </c>
       <c r="E15" t="n">
-        <v>2.249469403859445</v>
+        <v>2.171516106877029</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.17317378866317</v>
+        <v>-1.188038038235173</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4052982327316776</v>
+        <v>0.4168562551393885</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.7794775786969462</v>
       </c>
       <c r="E16" t="n">
-        <v>2.784905062371421</v>
+        <v>2.697268399754763</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.522813804115934</v>
+        <v>-1.538248635619409</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5284463407440008</v>
+        <v>0.53459288541268</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.9483209867504708</v>
       </c>
       <c r="E17" t="n">
-        <v>3.283056929957148</v>
+        <v>3.195152684089869</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.864104435139759</v>
+        <v>-1.879574682073463</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6543820366201475</v>
+        <v>0.6675156521682805</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.129340314515007</v>
       </c>
       <c r="E18" t="n">
-        <v>3.702056097990027</v>
+        <v>3.623007283699185</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.182415961011715</v>
+        <v>-2.207749011759489</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8056877726934187</v>
+        <v>0.8146628297230752</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.312981819114494</v>
       </c>
       <c r="E19" t="n">
-        <v>4.05450101551695</v>
+        <v>3.981660132640517</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.539845797095797</v>
+        <v>-2.569837944442621</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9499938457342658</v>
+        <v>0.9598110029938182</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.48770292457027</v>
       </c>
       <c r="E20" t="n">
-        <v>4.363181905395227</v>
+        <v>4.286446899212698</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.868094105680524</v>
+        <v>-2.905761957272371</v>
       </c>
       <c r="G20" t="n">
-        <v>1.076817288394826</v>
+        <v>1.093467262659945</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.645635964102393</v>
       </c>
       <c r="E21" t="n">
-        <v>4.591161260905298</v>
+        <v>4.528104480886871</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.144696485866694</v>
+        <v>-3.187002184799453</v>
       </c>
       <c r="G21" t="n">
-        <v>1.189756308386393</v>
+        <v>1.21165563642105</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.776887042019897</v>
       </c>
       <c r="E22" t="n">
-        <v>4.759384554494309</v>
+        <v>4.696862940977124</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.370459622453973</v>
+        <v>-3.423271899021414</v>
       </c>
       <c r="G22" t="n">
-        <v>1.279868903080857</v>
+        <v>1.307921071860678</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.877626068610173</v>
       </c>
       <c r="E23" t="n">
-        <v>4.874366651305324</v>
+        <v>4.814909653017311</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.510378117194194</v>
+        <v>-3.563250206488245</v>
       </c>
       <c r="G23" t="n">
-        <v>1.359348998610936</v>
+        <v>1.390376063530015</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.946533895356171</v>
       </c>
       <c r="E24" t="n">
-        <v>4.943903668046146</v>
+        <v>4.884168068373663</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.627953410507553</v>
+        <v>-3.683250276257967</v>
       </c>
       <c r="G24" t="n">
-        <v>1.422116159111043</v>
+        <v>1.45487149702531</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.986925071940976</v>
       </c>
       <c r="E25" t="n">
-        <v>4.942778244374415</v>
+        <v>4.889648802954032</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.729191959360931</v>
+        <v>-3.784029211527925</v>
       </c>
       <c r="G25" t="n">
-        <v>1.461545338099626</v>
+        <v>1.494593443570455</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.005157862848213</v>
       </c>
       <c r="E26" t="n">
-        <v>4.936326339996204</v>
+        <v>4.889746392139553</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.745336673488112</v>
+        <v>-3.797389485829526</v>
       </c>
       <c r="G26" t="n">
-        <v>1.488369771964832</v>
+        <v>1.523977232526896</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.006500703766173</v>
       </c>
       <c r="E27" t="n">
-        <v>4.900202601162354</v>
+        <v>4.861390437669321</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.692703048090938</v>
+        <v>-3.735546274553621</v>
       </c>
       <c r="G27" t="n">
-        <v>1.48303069910538</v>
+        <v>1.517145989540451</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.995689595693065</v>
       </c>
       <c r="E28" t="n">
-        <v>4.750222189189217</v>
+        <v>4.712392213627877</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.620806576687287</v>
+        <v>-3.659894980536107</v>
       </c>
       <c r="G28" t="n">
-        <v>1.43751793621297</v>
+        <v>1.47413591705091</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.973621301958007</v>
       </c>
       <c r="E29" t="n">
-        <v>4.624579260869632</v>
+        <v>4.590232589623731</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.530343762738333</v>
+        <v>-3.567756623232529</v>
       </c>
       <c r="G29" t="n">
-        <v>1.39142278624568</v>
+        <v>1.425772605529825</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.942569398777514</v>
       </c>
       <c r="E30" t="n">
-        <v>4.479602655683111</v>
+        <v>4.453994938598671</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.409104152910587</v>
+        <v>-3.455397629287161</v>
       </c>
       <c r="G30" t="n">
-        <v>1.338121776741075</v>
+        <v>1.371517740437711</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.901288458284947</v>
       </c>
       <c r="E31" t="n">
-        <v>4.327758605070356</v>
+        <v>4.306627398366894</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.289239448785297</v>
+        <v>-3.337743635017738</v>
       </c>
       <c r="G31" t="n">
-        <v>1.26760099804944</v>
+        <v>1.293547129244961</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.852592400051041</v>
       </c>
       <c r="E32" t="n">
-        <v>4.187500909209493</v>
+        <v>4.162440950779265</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.152390291331612</v>
+        <v>-3.203756831336138</v>
       </c>
       <c r="G32" t="n">
-        <v>1.199612816123978</v>
+        <v>1.227894791695509</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.794690572303488</v>
       </c>
       <c r="E33" t="n">
-        <v>3.984501237154465</v>
+        <v>3.961652775589664</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.033254358059484</v>
+        <v>-3.090964195122853</v>
       </c>
       <c r="G33" t="n">
-        <v>1.128316046005542</v>
+        <v>1.154408560979344</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.73032652559912</v>
       </c>
       <c r="E34" t="n">
-        <v>3.727391509766483</v>
+        <v>3.702529877745539</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.953237522009042</v>
+        <v>-3.008428141468769</v>
       </c>
       <c r="G34" t="n">
-        <v>1.068792938914435</v>
+        <v>1.094002429161187</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.659760062557094</v>
       </c>
       <c r="E35" t="n">
-        <v>3.486634267029694</v>
+        <v>3.462076420699161</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.865275037434275</v>
+        <v>-2.926681458404018</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9760517322873987</v>
+        <v>1.006099757313029</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.585094481120474</v>
       </c>
       <c r="E36" t="n">
-        <v>3.231152075413137</v>
+        <v>3.212825770783833</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.794461491186078</v>
+        <v>-2.84677873873987</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9033572331892478</v>
+        <v>0.9322452061224792</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.507773978055079</v>
       </c>
       <c r="E37" t="n">
-        <v>2.980725633214197</v>
+        <v>2.957538757538317</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.69551077912551</v>
+        <v>-2.746680566739874</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8466579164017544</v>
+        <v>0.8695205441386469</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.427152882609493</v>
       </c>
       <c r="E38" t="n">
-        <v>2.698615760122596</v>
+        <v>2.683808962248521</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.602848273454539</v>
+        <v>-2.646581607730317</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7813046424853498</v>
+        <v>0.8065660753631045</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.344903349764919</v>
       </c>
       <c r="E39" t="n">
-        <v>2.444905914036624</v>
+        <v>2.43283633541449</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.492902250822125</v>
+        <v>-2.543652562340662</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7117424414385872</v>
+        <v>0.7369267473793982</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.259747017894289</v>
       </c>
       <c r="E40" t="n">
-        <v>2.21049669041604</v>
+        <v>2.20006566569918</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.398200603379509</v>
+        <v>-2.452035992375795</v>
       </c>
       <c r="G40" t="n">
-        <v>0.655996980238602</v>
+        <v>0.675653331025405</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.173664703689506</v>
       </c>
       <c r="E41" t="n">
-        <v>2.008902617436333</v>
+        <v>1.997295800435862</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.301116677996804</v>
+        <v>-2.3514058019128</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5908861052668778</v>
+        <v>0.6098042410857908</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.08540544984551</v>
       </c>
       <c r="E42" t="n">
-        <v>1.760390182488895</v>
+        <v>1.757793050938749</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.202569701840849</v>
+        <v>-2.251354850486443</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5201008913628645</v>
+        <v>0.5372624218424059</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.9981245166997429</v>
       </c>
       <c r="E43" t="n">
-        <v>1.54332035350856</v>
+        <v>1.540520173491766</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.121244068891046</v>
+        <v>-2.170686370519783</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4662710114335023</v>
+        <v>0.4825589613007218</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.9123548526624078</v>
       </c>
       <c r="E44" t="n">
-        <v>1.316549844683649</v>
+        <v>1.321005892816051</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.032609478151483</v>
+        <v>-2.081975439852836</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4156253721865314</v>
+        <v>0.4249656016523297</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.8299987649188881</v>
       </c>
       <c r="E45" t="n">
-        <v>1.105382587408191</v>
+        <v>1.108577846224431</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.952668982028424</v>
+        <v>-1.999483458734149</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3557481107931319</v>
+        <v>0.3633695113784698</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.7521976306251146</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9071301570230055</v>
+        <v>0.9135600251335187</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.885468596673173</v>
+        <v>-1.931695964246653</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2870106957659309</v>
+        <v>0.2956819671051764</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.6793024405943512</v>
       </c>
       <c r="E47" t="n">
-        <v>0.7475671166393908</v>
+        <v>0.7565217114204704</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.835633577273672</v>
+        <v>-1.877079074756641</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2474697614197363</v>
+        <v>0.2529741062869248</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.6124991521364731</v>
       </c>
       <c r="E48" t="n">
-        <v>0.5863230238342271</v>
+        <v>0.5935981402128788</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.770147298741518</v>
+        <v>-1.81416316944957</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2014753486762089</v>
+        <v>0.2034035220998023</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.550669558679545</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4597561462904388</v>
+        <v>0.4696189501045089</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.721563624543451</v>
+        <v>-1.764652397989057</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1498790018799724</v>
+        <v>0.1572359672529318</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.49424560071533</v>
       </c>
       <c r="E50" t="n">
-        <v>0.3560062499290252</v>
+        <v>0.3568546462354063</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.66049876572303</v>
+        <v>-1.708203350241851</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1147028225571446</v>
+        <v>0.1173125462602611</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.4417514567715959</v>
       </c>
       <c r="E51" t="n">
-        <v>0.2260930077333517</v>
+        <v>0.2293118768364116</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.607366176264404</v>
+        <v>-1.650061444929685</v>
       </c>
       <c r="G51" t="n">
-        <v>0.07795577215125873</v>
+        <v>0.08134463531941911</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.3935385749512203</v>
       </c>
       <c r="E52" t="n">
-        <v>0.1191399824600912</v>
+        <v>0.1219779389357964</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.565048672188235</v>
+        <v>-1.612449471016645</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04674769503323</v>
+        <v>0.04803052061709006</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.349013343179</v>
       </c>
       <c r="E53" t="n">
-        <v>0.02962866306996372</v>
+        <v>0.03802290704386029</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.543922187542137</v>
+        <v>-1.583603209590127</v>
       </c>
       <c r="G53" t="n">
-        <v>0.007290183700464361</v>
+        <v>0.008225151058516969</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.3093287466659171</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.06143621319288757</v>
+        <v>-0.05065260819285656</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.526490712783293</v>
+        <v>-1.567147626686489</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.01319724918238539</v>
+        <v>-0.01125490958670034</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.2740456987370484</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.1336364702869501</v>
+        <v>-0.1233030347556111</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.514033925457319</v>
+        <v>-1.556417538336583</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.04289899000132937</v>
+        <v>-0.04079767447439295</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.2431216552314388</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.2008219024605487</v>
+        <v>-0.184475713885841</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.519380868412378</v>
+        <v>-1.560785441398192</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.07450214591880458</v>
+        <v>-0.07460917921905302</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.2169452094234366</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.2570269772439536</v>
+        <v>-0.2437154975351137</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.516283198781658</v>
+        <v>-1.559336556797035</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1057763318399279</v>
+        <v>-0.0978841999657263</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.195150372931794</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.3402485162253636</v>
+        <v>-0.3226840368507692</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.515437163503959</v>
+        <v>-1.558311870349068</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1265644023749461</v>
+        <v>-0.1209797825325713</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.1775517530900617</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.4138669645477181</v>
+        <v>-0.3941744113211252</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.534092438129614</v>
+        <v>-1.57220731115191</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1503604234507699</v>
+        <v>-0.1456241999147762</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.1633001143431821</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.4842051570212819</v>
+        <v>-0.4722803881583079</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.548357773425962</v>
+        <v>-1.584923024623338</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1817920112840234</v>
+        <v>-0.1728893591339467</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.1508570361989924</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.5555711839810551</v>
+        <v>-0.5411531688299408</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.576667294332116</v>
+        <v>-1.610792815891475</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2042674303170759</v>
+        <v>-0.1966759360950427</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.139181572629278</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.6101345568209434</v>
+        <v>-0.5943502930725402</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.606685412994441</v>
+        <v>-1.646161025547102</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2174970610316082</v>
+        <v>-0.2121800244398545</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.1275938470044277</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.6620567255752893</v>
+        <v>-0.6444702099329966</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.651039697813574</v>
+        <v>-1.688365200246537</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2505404444450735</v>
+        <v>-0.2435565216038623</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.1159230525595668</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.7173221109432777</v>
+        <v>-0.6970928171963212</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.691967343005634</v>
+        <v>-1.726629605085357</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2726680052523185</v>
+        <v>-0.2689737823746259</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.104816047720039</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.7917968256676197</v>
+        <v>-0.7660679091108387</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.73664115370639</v>
+        <v>-1.77148127994682</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2979939729140466</v>
+        <v>-0.2887009640218874</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.09396399611233736</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.8638231536487785</v>
+        <v>-0.8274137303444117</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.775683911000693</v>
+        <v>-1.810554730613988</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3189913879921978</v>
+        <v>-0.3132273299699947</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.08327348986278983</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.9167826010040615</v>
+        <v>-0.8811475951073745</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.806655098240966</v>
+        <v>-1.844867560448783</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3422915930448119</v>
+        <v>-0.3352163770945653</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.07264815087558671</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.9547180358465294</v>
+        <v>-0.9060139491856828</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.840561044132904</v>
+        <v>-1.880879543925021</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3662717743578279</v>
+        <v>-0.3562610127463555</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.06172047601560953</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.9761695554411758</v>
+        <v>-0.9222436603454142</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.880906302250083</v>
+        <v>-1.930629566291972</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3851584297943148</v>
+        <v>-0.3763643849636079</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.04988296287614821</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.9737565841282219</v>
+        <v>-0.9200077661836066</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.911823972840232</v>
+        <v>-1.958093838929987</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4072529362000126</v>
+        <v>-0.3931245405672176</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.03594435140005829</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.9808664284991371</v>
+        <v>-0.9359683200735955</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.937929866976565</v>
+        <v>-1.985711578432329</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4166167759526304</v>
+        <v>-0.4019894162583831</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.01953667595304948</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.9813221070347535</v>
+        <v>-0.9285901054424985</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.980862025519601</v>
+        <v>-2.026812365727733</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4218015949381949</v>
+        <v>-0.4078557855234707</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.0004755447400886279</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.9436943929304999</v>
+        <v>-0.8876656082886807</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.003810437298605</v>
+        <v>-2.057283014887432</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4343056028378075</v>
+        <v>-0.4207344099739529</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.02014770277303182</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.8915542225278541</v>
+        <v>-0.8395399736549122</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.041156401980146</v>
+        <v>-2.090769484683543</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4337720103556866</v>
+        <v>-0.4163964132756483</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.04182717912074613</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.8323105038307781</v>
+        <v>-0.7786836723680637</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.067123782433804</v>
+        <v>-2.119382004270547</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4407291748718356</v>
+        <v>-0.4242303064423618</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.06416432756552912</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.7430935260163338</v>
+        <v>-0.6920166055301266</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.097248147386817</v>
+        <v>-2.141800758615233</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4330967561526486</v>
+        <v>-0.4189116958314868</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.08615094840380468</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.6471743747833912</v>
+        <v>-0.5901870124966998</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.090350008587717</v>
+        <v>-2.129470679828524</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4194515843900929</v>
+        <v>-0.4082917888200711</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.1076102459757059</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.5359730719017403</v>
+        <v>-0.4806998164381453</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.093749889889726</v>
+        <v>-2.126727951509658</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4114555672538854</v>
+        <v>-0.4003508623531091</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.1276938262426938</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.3786986553204968</v>
+        <v>-0.3241982432454605</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.076209020801951</v>
+        <v>-2.105629799207743</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3865262524107251</v>
+        <v>-0.3764619741491285</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.1453174098656961</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.2380458806601886</v>
+        <v>-0.1799252246061608</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.04309795456627</v>
+        <v>-2.072429013882148</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3668242550694044</v>
+        <v>-0.3556298310787139</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.1596019097260584</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.03811397187257528</v>
+        <v>0.01666818962517386</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.010049849095441</v>
+        <v>-2.043548124034962</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3398864918274644</v>
+        <v>-0.32627909652382</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.1694155445551677</v>
       </c>
       <c r="E82" t="n">
-        <v>0.1330606075688745</v>
+        <v>0.183954941837011</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.966976815841047</v>
+        <v>-2.001484037037323</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.318416871012923</v>
+        <v>-0.2980034170287744</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.1741119154534042</v>
       </c>
       <c r="E83" t="n">
-        <v>0.3403101312514148</v>
+        <v>0.3957502327418676</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.908351686658643</v>
+        <v>-1.939191443302287</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2801902426330146</v>
+        <v>-0.2641494137678392</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.173759669758584</v>
       </c>
       <c r="E84" t="n">
-        <v>0.5490738613286463</v>
+        <v>0.59332111284753</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.826174509364216</v>
+        <v>-1.85202777343158</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2489003165206782</v>
+        <v>-0.2284475120584971</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1677008546965012</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7310304717510058</v>
+        <v>0.7699732788311061</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.710185040315568</v>
+        <v>-1.735120651235214</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2226362334626549</v>
+        <v>-0.1977793234990745</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1582793011072948</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9461186106576235</v>
+        <v>0.9892703448680819</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.618360699826689</v>
+        <v>-1.636892413951323</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1888688012533913</v>
+        <v>-0.1642794745404319</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1474198922708756</v>
       </c>
       <c r="E87" t="n">
-        <v>1.155988876177129</v>
+        <v>1.19268083591377</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.495954741830059</v>
+        <v>-1.505845877988313</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1516873215700264</v>
+        <v>-0.1322639256131759</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.1380008319726016</v>
       </c>
       <c r="E88" t="n">
-        <v>1.324010695318614</v>
+        <v>1.353100142699372</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.341644990263786</v>
+        <v>-1.356585579763172</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1242805006299388</v>
+        <v>-0.1016917522201527</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.1328777916603272</v>
       </c>
       <c r="E89" t="n">
-        <v>1.456391999496487</v>
+        <v>1.481544825054872</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.160340810767205</v>
+        <v>-1.176303725685876</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.09666905720408217</v>
+        <v>-0.07425345089763907</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.1339691250991732</v>
       </c>
       <c r="E90" t="n">
-        <v>1.571216694395372</v>
+        <v>1.594268204426821</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.974505817229961</v>
+        <v>-0.9886090285568151</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.0724685132140841</v>
+        <v>-0.05337880931094935</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.1430992014226136</v>
       </c>
       <c r="E91" t="n">
-        <v>1.648593900379393</v>
+        <v>1.67773056833379</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.7787907056683121</v>
+        <v>-0.789421630813577</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.07557720097865295</v>
+        <v>-0.05546595866579406</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.1610323273356008</v>
       </c>
       <c r="E92" t="n">
-        <v>1.707855720296364</v>
+        <v>1.726062399472449</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.5731183491453151</v>
+        <v>-0.5756336317011537</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.06963213075750026</v>
+        <v>-0.05092963555820548</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.1878128408879295</v>
       </c>
       <c r="E93" t="n">
-        <v>1.715365365524089</v>
+        <v>1.727257079985516</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.4002328109190115</v>
+        <v>-0.4001399437908548</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.07497592567431609</v>
+        <v>-0.05995348718062232</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.2213186429370775</v>
       </c>
       <c r="E94" t="n">
-        <v>1.701701305532078</v>
+        <v>1.711798638195222</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2149786304375271</v>
+        <v>-0.2135147926547174</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.09541456396440552</v>
+        <v>-0.0862222922960095</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.2584854041139294</v>
       </c>
       <c r="E95" t="n">
-        <v>1.668876710776473</v>
+        <v>1.677110404799997</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.07480120955185171</v>
+        <v>-0.07700168828343007</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.1005710506057866</v>
+        <v>-0.08970244857320532</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.2942997304538472</v>
       </c>
       <c r="E96" t="n">
-        <v>1.605971036593691</v>
+        <v>1.605234395644923</v>
       </c>
       <c r="F96" t="n">
-        <v>0.03451127038423846</v>
+        <v>0.04145899078565969</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1143531620318954</v>
+        <v>-0.1088519652029495</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.3238000805980016</v>
       </c>
       <c r="E97" t="n">
-        <v>1.510802692481609</v>
+        <v>1.500974517088208</v>
       </c>
       <c r="F97" t="n">
-        <v>0.09762156705278953</v>
+        <v>0.1054224058179557</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1367986747016432</v>
+        <v>-0.1342534857825</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.3408673313978545</v>
       </c>
       <c r="E98" t="n">
-        <v>1.379815969245209</v>
+        <v>1.377310130804098</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1456149840803688</v>
+        <v>0.1514168185614831</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1452228250388445</v>
+        <v>-0.1422857053584974</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.3435648772431286</v>
       </c>
       <c r="E99" t="n">
-        <v>1.252055985207474</v>
+        <v>1.24935182035708</v>
       </c>
       <c r="F99" t="n">
-        <v>0.157980478297307</v>
+        <v>0.1684335392818649</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1603932213299405</v>
+        <v>-0.1587279090996044</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.3313611105860379</v>
       </c>
       <c r="E100" t="n">
-        <v>1.124097674760456</v>
+        <v>1.123247704434954</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1765964024449302</v>
+        <v>0.1911308950110208</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1675644524465864</v>
+        <v>-0.1659337686369189</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.3110988612327711</v>
       </c>
       <c r="E101" t="n">
-        <v>1.011918906004478</v>
+        <v>1.00673093898067</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1879293401182952</v>
+        <v>0.2006584327522539</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1912502921839192</v>
+        <v>-0.1892213815365626</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2829961714019251</v>
       </c>
       <c r="E102" t="n">
-        <v>0.896223778531513</v>
+        <v>0.8930914804801247</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1855116467479773</v>
+        <v>0.2050530941389254</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1945588803768932</v>
+        <v>-0.1976077554148527</v>
       </c>
     </row>
   </sheetData>
